--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebTTCNTT\wp-content\plugins\dlu-tracuuvanbang\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7EAD8-A2D5-48E5-A2AA-1CE80BB6A056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B5684-B668-4D05-BF0E-905ED12573D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2115" windowWidth="18000" windowHeight="9360" xr2:uid="{FD369ADB-2576-4068-A78C-EC60C6010003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FD369ADB-2576-4068-A78C-EC60C6010003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,9 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55F830-D440-4492-84B5-249DECDC5915}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
